--- a/DBDQ.xlsx
+++ b/DBDQ.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2564D4E1-BBE8-41BE-90D7-905D7A781AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEMWat" sheetId="3" r:id="rId1"/>
     <sheet name="Arizona" sheetId="1" r:id="rId2"/>
+    <sheet name="Arizona Ethanol" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t xml:space="preserve">Solvent 1 </t>
   </si>
@@ -173,12 +186,36 @@
   </si>
   <si>
     <t>Composition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,16 +256,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,20 +565,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,11 +663,11 @@
       <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -713,17 +768,17 @@
         <f>(L2*$D$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
         <v>0.93468576942673043</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>9.3000000000000013E-2</v>
       </c>
@@ -812,11 +867,11 @@
         <f t="shared" ref="AB3:AB16" si="15">(L3*$D$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
         <v>0.84007622579316032</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>86.178479999999993</v>
       </c>
@@ -917,17 +972,17 @@
         <f t="shared" si="15"/>
         <v>0.71039526063858216</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>0.35799999999999998</v>
       </c>
@@ -1016,11 +1071,11 @@
         <f t="shared" si="15"/>
         <v>0.63328397515827517</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.66100000000000003</v>
       </c>
@@ -1121,11 +1176,11 @@
         <f t="shared" si="15"/>
         <v>0.56333901567129763</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
         <v>0.54700000000000004</v>
       </c>
@@ -1214,11 +1269,11 @@
         <f t="shared" si="15"/>
         <v>0.49455337594355603</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>0.63400000000000001</v>
       </c>
@@ -1307,11 +1362,11 @@
         <f t="shared" si="15"/>
         <v>0.4319820238405791</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>0.68799999999999994</v>
       </c>
@@ -1400,11 +1455,11 @@
         <f t="shared" si="15"/>
         <v>0.40852514304818999</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>0.76300000000000001</v>
       </c>
@@ -1493,11 +1548,11 @@
         <f t="shared" si="15"/>
         <v>0.36384792914880798</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
         <v>0.84699999999999998</v>
       </c>
@@ -1586,11 +1641,11 @@
         <f t="shared" si="15"/>
         <v>0.31148060703597308</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>0.91299999999999992</v>
       </c>
@@ -1679,11 +1734,11 @@
         <f t="shared" si="15"/>
         <v>0.23911936804805239</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AC12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>0.98299999999999998</v>
       </c>
@@ -1772,11 +1827,11 @@
         <f t="shared" si="15"/>
         <v>0.1037431767239216</v>
       </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AC13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>0.99</v>
       </c>
@@ -1865,11 +1920,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1944,7 +1999,7 @@
       </c>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2029,20 +2084,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,11 +2182,11 @@
       <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2236,13 +2291,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>0.10299999999999999</v>
       </c>
@@ -2335,7 +2390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100.202</v>
       </c>
@@ -2440,13 +2495,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1">
         <v>0.25800000000000001</v>
       </c>
@@ -2539,7 +2594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.68400000000000005</v>
       </c>
@@ -2644,7 +2699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
         <v>0.46100000000000002</v>
       </c>
@@ -2737,7 +2792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>0.54600000000000004</v>
       </c>
@@ -2830,7 +2885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
         <v>0.625</v>
       </c>
@@ -2923,7 +2978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
         <v>0.69399999999999995</v>
       </c>
@@ -3016,7 +3071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
         <v>0.75800000000000001</v>
       </c>
@@ -3109,7 +3164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>0.83</v>
       </c>
@@ -3202,7 +3257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>0.89700000000000002</v>
       </c>
@@ -3295,7 +3350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>0.97299999999999998</v>
       </c>
@@ -3388,7 +3443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>0.98</v>
       </c>
@@ -3481,7 +3536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>0.94699999999999995</v>
       </c>
@@ -3572,6 +3627,2115 @@
       </c>
       <c r="AC16" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E175C03-938F-475A-925F-25E9385D658D}">
+  <dimension ref="A1:AC22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45.034527727272732</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.2418643399999998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.965472272727272</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>47.758135660000001</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(U2/$A$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(V2/$B$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0.7879513762689242</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(W2/$C$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(X2/$D$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
+        <v>0.21204862373107589</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(Y2/$A$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(Z2/$B$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>1.8869809362168758E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(AA2/$C$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(AB2/$D$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
+        <v>0.98113019063783113</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(E2*$A$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f>(F2*$B$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>0.94784571588594058</v>
+      </c>
+      <c r="W2" s="1">
+        <f>(G2*$C$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <f>(H2*$D$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
+        <v>5.2154284114059396E-2</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>(I2*$A$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>(J2*$B$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>8.5976893703052421E-2</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>(K2*$C$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>(L2*$D$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
+        <v>0.91402310629694761</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="1">
+        <v>2.4995558333333334</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42.438907017738359</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.92484092522179973</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.1283949400000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.4416666666666666E-4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.0610929822616404</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.5751590747782001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45.37160506</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M16" si="0">(U3/$A$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>2.9159324545837313E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N16" si="1">(V3/$B$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>0.74247260223226974</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O16" si="2">(W3/$C$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>2.7069459879200605E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P16" si="3">(X3/$D$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
+        <v>0.20129861334269233</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q16" si="4">(Y3/$A$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>1.1707641884811122E-6</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R16" si="5">(Z3/$B$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>2.0006421183944415E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S16" si="6">(AA3/$C$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>1.0417075687477762E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T16" si="7">(AB3/$D$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
+        <v>0.96957533236438931</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U16" si="8">(E3*$A$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>3.9907664038034571E-2</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V16" si="9">(F3*$B$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>0.89352784622604298</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3:W16" si="10">(G3*$C$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>1.7032617997262519E-2</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X16" si="11">(H3*$D$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
+        <v>4.9531871738659847E-2</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y16" si="12">(I3*$A$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>5.9519587610609988E-6</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z16" si="13">(J3*$B$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>8.9435245311600978E-2</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3:AA16" si="14">(K3*$C$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>2.4347774542462647E-2</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" ref="AB3:AB16" si="15">(L3*$D$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
+        <v>0.88621102818717534</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>100.202</v>
+      </c>
+      <c r="B4" s="1">
+        <v>88.11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18.0153</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.9989407748538008</v>
+      </c>
+      <c r="F4" s="1">
+        <v>39.775849578713967</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.7935964892268694</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.98926943</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0592251461988304E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.2241504212860308</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.2064035107731303</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43.01073057</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8619329997345967E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69949392645121955</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2769810827203077E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18911693272423141</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9053335174169823E-6</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1489435623732449E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2066010505931492E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.95644164853681868</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="8"/>
+        <v>8.0085072234075932E-2</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.84031764038647505</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="10"/>
+        <v>3.3145091848224069E-2</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="11"/>
+        <v>4.6452195531225031E-2</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4454220860358215E-5</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="13"/>
+        <v>9.4009666733786329E-2</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="14"/>
+        <v>5.0471415025438802E-2</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="15"/>
+        <v>0.85550446401991453</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1">
+        <v>7.0981820906432747</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37.47670009977827</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4549065652724966</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.8522975699999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.8179093567251459E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.4232999002217293</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.645093434727503</v>
+      </c>
+      <c r="L5" s="1">
+        <v>41.047702430000001</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4024025286247264E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66530274444329907</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2910360852158698E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17776286941829494</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="4"/>
+        <v>5.156109677258134E-6</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3068277512058276E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="6"/>
+        <v>3.3055391811261207E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9438711745670032</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11439293169923148</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.79645975051690532</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="10"/>
+        <v>4.5636036945055462E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="11"/>
+        <v>4.3511280838807849E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5129036271133137E-5</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="13"/>
+        <v>9.8859330501039788E-2</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="14"/>
+        <v>7.4066012455515792E-2</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="15"/>
+        <v>0.82704952800717324</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.2975893713450279</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36.13250027716186</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.7951876172370085</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.76568178</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.4106286549707601E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.5674997228381375</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.5048123827629905</v>
+      </c>
+      <c r="L6" s="1">
+        <v>39.934318220000002</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9001135543089966E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64652880135239355</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3675272278870907E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17079479082564566</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9687217179676578E-6</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4137074792187622E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9926685839628703E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.93592927064646569</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1343871079742695</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.77170998527270807</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="10"/>
+        <v>5.2220080187946639E-2</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="11"/>
+        <v>4.1682826565075666E-2</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="12"/>
+        <v>3.3526329369877737E-5</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="13"/>
+        <v>0.10210954301192095</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8311877083949594E-2</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="15"/>
+        <v>0.80954505357475959</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>9.9964466812865478</v>
+      </c>
+      <c r="F7" s="1">
+        <v>34.182841463414633</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.2187356907477818</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.6323524899999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.5533187134502921E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.8171585365853655</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6.7812643092522169</v>
+      </c>
+      <c r="L7" s="1">
+        <v>38.367647509999998</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12106664162108645</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62085277521219617</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>9.780523262987989E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16027535053683745</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0550297613867877E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5902582894345678E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="6"/>
+        <v>5.0517186268262883E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9235696805397775</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.16343148032269822</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.73696804492542689</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="10"/>
+        <v>6.0701060372158236E-2</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="11"/>
+        <v>3.8899414379716744E-2</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="12"/>
+        <v>4.9751220788250494E-5</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="13"/>
+        <v>0.10740658651205365</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="14"/>
+        <v>0.10952194610172848</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="15"/>
+        <v>0.78302171616542959</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>12.493711111111109</v>
+      </c>
+      <c r="F8" s="1">
+        <v>31.197670864745014</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.6876251964512043</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.4140583600000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.2888888888888881E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6.3023291352549888</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.8123748035487957</v>
+      </c>
+      <c r="L8" s="1">
+        <v>36.085941640000001</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15617746367409313</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58485836049117734</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11565691742851329</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14330725840621619</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9402608471159517E-5</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9160092888423084E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="6"/>
+        <v>6.8214561495966039E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9026059430071397</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20840447412697952</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.68625921081880281</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="10"/>
+        <v>7.0955040770777536E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="11"/>
+        <v>3.438127428344033E-2</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="12"/>
+        <v>8.8474515934726074E-5</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1169218799032247</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="14"/>
+        <v>0.14300727623180035</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="15"/>
+        <v>0.73998236934904027</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>14.290391856725146</v>
+      </c>
+      <c r="F9" s="1">
+        <v>28.939281640798228</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.8864731812420787</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.24162825</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9.6081432748538007E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.760718359201773</v>
+      </c>
+      <c r="K9" s="1">
+        <v>10.413526818757921</v>
+      </c>
+      <c r="L9" s="1">
+        <v>34.458371749999998</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18437394043936711</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55994422615787576</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12580821725428878</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12987361614846832</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0440306493698527E-5</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2122106614234765E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="6"/>
+        <v>8.2776169139927164E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.88507128393934442</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.24325771794455342</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.64962192295593157</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="10"/>
+        <v>7.631309495172546E-2</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0807264147789566E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="12"/>
+        <v>1.3501456065667748E-4</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="13"/>
+        <v>0.12528077089974957</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1687951167496764</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="15"/>
+        <v>0.7057890977899175</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>16.682632821637426</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25.744098636363635</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.9349254372623577</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.99576041000000004</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.7367178362573097E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.5559013636363632</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12.765074562737642</v>
+      </c>
+      <c r="L10" s="1">
+        <v>32.304239590000002</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22779166111258103</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52717225537743106</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13480551845112362</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11023056505886429</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6890268620034289E-5</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7119030485287842E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.10491316986680495</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.85791090937928716</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.29463103990417111</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.5995729536998663</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="10"/>
+        <v>8.016251167950228E-2</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="11"/>
+        <v>2.5633494716460391E-2</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="12"/>
+        <v>2.4190697650239699E-4</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13878925502010711</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.20509892604473565</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="15"/>
+        <v>0.65586991195865496</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>19.958641198830406</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20.915546419068733</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.5526945754119135</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.64804028999999996</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.1358801169590641E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9.0844535809312639</v>
+      </c>
+      <c r="K11" s="1">
+        <v>16.447305424588087</v>
+      </c>
+      <c r="L11" s="1">
+        <v>29.351959709999999</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30474478573243513</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47893453274890513</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13610093814866051</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0219743369999152E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4120685262631748E-4</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="5"/>
+        <v>4.6514490264926579E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.14089011446065561</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.81245418842179151</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.37956522115129759</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.5245357486807164</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="10"/>
+        <v>7.7935300722966172E-2</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="11"/>
+        <v>1.7963729445019821E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="12"/>
+        <v>5.6059399922839845E-4</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16237895749338727</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.25715570385080733</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="15"/>
+        <v>0.57990474465657693</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>22.613436622807015</v>
+      </c>
+      <c r="F12" s="1">
+        <v>16.572340421286032</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.8909353738910011</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.38991123999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.6563377192982446E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10.727659578713968</v>
+      </c>
+      <c r="K12" s="1">
+        <v>19.809064626108999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>26.910088760000001</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39068680871539596</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42938577226069968</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12531368356148553</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4613735462418794E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="4"/>
+        <v>3.047551550983398E-4</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="5"/>
+        <v>5.6640030315139735E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="6"/>
+        <v>0.17497611560697512</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.76807909892278692</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="8"/>
+        <v>0.46750316759955829</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.45180628830667019</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="10"/>
+        <v>6.8940951692751773E-2</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="11"/>
+        <v>1.1749592401019714E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="12"/>
+        <v>1.134403285860614E-3</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.18539102409788097</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="14"/>
+        <v>0.2994457506006758</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="15"/>
+        <v>0.51402882201558264</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>24.840614166666665</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.824178259423503</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.2230142332065905</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.22210991999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.15938583333333331</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12.175821740576497</v>
+      </c>
+      <c r="K13" s="1">
+        <v>22.776985766793409</v>
+      </c>
+      <c r="L13" s="1">
+        <v>24.777890079999999</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48280024523340387</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37379744068749227</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10840400546523156</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4998308613872348E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7655077831728974E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6052270548843231E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.20671977757999307</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.72665140109284643</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="8"/>
+        <v>0.5564648116182459</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.37883959130921396</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="10"/>
+        <v>5.7443186377321098E-2</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="11"/>
+        <v>7.2524106952190316E-3</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="12"/>
+        <v>2.0276659154486207E-3</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="13"/>
+        <v>0.20426567825842662</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="14"/>
+        <v>0.33424416569535281</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="15"/>
+        <v>0.45946249013077195</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>27.02819795321637</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.6154069844789358</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.6780257541191379</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.12073867000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.27180204678362574</v>
+      </c>
+      <c r="J14" s="1">
+        <v>13.084593015521065</v>
+      </c>
+      <c r="K14" s="1">
+        <v>25.62197424588086</v>
+      </c>
+      <c r="L14" s="1">
+        <v>22.579261330000001</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57953997480985264</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30919723542067978</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0274036509202529E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0988753260265208E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0170875344592341E-3</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3428972679119034E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.2405559660764742</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.68499797370994764</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.64630191395035486</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.30320506920919466</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="10"/>
+        <v>4.6284744911476425E-2</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="11"/>
+        <v>4.208271928973952E-3</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="12"/>
+        <v>3.397806454853076E-3</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="13"/>
+        <v>0.21570319050861092</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36947019179292068</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="15"/>
+        <v>0.41142881124361547</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>29.547369166666662</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.9489751108647448</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.2980852217997463</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.4070470000000004E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.45263083333333326</v>
+      </c>
+      <c r="J15" s="1">
+        <v>13.051024889135254</v>
+      </c>
+      <c r="K15" s="1">
+        <v>28.701914778200251</v>
+      </c>
+      <c r="L15" s="1">
+        <v>19.935929529999999</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67544575718178901</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23822867784828106</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4451387992922252E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1874176977007852E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.784375191622707E-3</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="5"/>
+        <v>7.715930091449491E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.2838904907772547</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.63716583311662767</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.7331522641665621</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.22737701135360394</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="10"/>
+        <v>3.7153477481532131E-2</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="11"/>
+        <v>2.3172469983018485E-3</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="12"/>
+        <v>5.6699510100995413E-3</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="13"/>
+        <v>0.21559080062177752</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.41473142476166569</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="15"/>
+        <v>0.36400782360645711</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>32.533999225146196</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.8514529600886913</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0787034600760457</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.4955369999999999E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.76600077485380103</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11.848547039911308</v>
+      </c>
+      <c r="K16" s="1">
+        <v>32.221296539923955</v>
+      </c>
+      <c r="L16" s="1">
+        <v>16.665044630000001</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76014871107571136</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16999437880600574</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3235523254395479E-2</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6213868638874077E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2667272987055964E-3</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="5"/>
+        <v>7.5779266017286684E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3447661490828961</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.57618785760111157</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.80876186587614851</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.15903967302483624</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="10"/>
+        <v>3.0931870752681757E-2</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="11"/>
+        <v>1.2665903463337346E-3</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="12"/>
+        <v>9.8395211846340411E-3</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="13"/>
+        <v>0.20070596920807426</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.47742886158551051</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="15"/>
+        <v>0.31202564802178107</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>34.601347836257304</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.7681615631929044</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0057158428390367</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.446195E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.09865216374269</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10.531838436807096</v>
+      </c>
+      <c r="K17" s="1">
+        <v>34.694284157160958</v>
+      </c>
+      <c r="L17" s="1">
+        <v>14.27553805</v>
+      </c>
+      <c r="M17" s="1">
+        <f>(U17/$A$4)/((U17/$A$4)+(V17/$B$4)+(W17/$C$4)+(X17/$D$4))</f>
+        <v>0.8051680757048516</v>
+      </c>
+      <c r="N17" s="1">
+        <f>(V17/$B$4)/((U17/$A$4)+(V17/$B$4)+(W17/$C$4)+(X17/$D$4))</f>
+        <v>0.13149967232679485</v>
+      </c>
+      <c r="O17" s="1">
+        <f>(W17/$C$4)/((U17/$A$4)+(V17/$B$4)+(W17/$C$4)+(X17/$D$4))</f>
+        <v>5.871739172980521E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <f>(X17/$D$4)/((U17/$A$4)+(V17/$B$4)+(W17/$C$4)+(X17/$D$4))</f>
+        <v>4.6148602385484129E-3</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>(Y17/$A$4)/((Y17/$A$4)+(Z17/$B$4)+(AA17/$C$4)+(AB17/$D$4))</f>
+        <v>5.001238485898305E-3</v>
+      </c>
+      <c r="R17" s="1">
+        <f>(Z17/$B$4)/((Y17/$A$4)+(Z17/$B$4)+(AA17/$C$4)+(AB17/$D$4))</f>
+        <v>7.1899051630115604E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <f>(AA17/$C$4)/((Y17/$A$4)+(Z17/$B$4)+(AA17/$C$4)+(AB17/$D$4))</f>
+        <v>0.39625359343812477</v>
+      </c>
+      <c r="T17" s="1">
+        <f>(AB17/$D$4)/((Y17/$A$4)+(Z17/$B$4)+(AA17/$C$4)+(AB17/$D$4))</f>
+        <v>0.52684611644586132</v>
+      </c>
+      <c r="U17" s="1">
+        <f>(E17*$A$6)/((E17*$A$6)+(F17*$B$6)+(G17*$C$6)+(H17*$D$6))</f>
+        <v>0.84877475731475371</v>
+      </c>
+      <c r="V17" s="1">
+        <f>(F17*$B$6)/((E17*$A$6)+(F17*$B$6)+(G17*$C$6)+(H17*$D$6))</f>
+        <v>0.12189317512449249</v>
+      </c>
+      <c r="W17" s="1">
+        <f>(G17*$C$6)/((E17*$A$6)+(F17*$B$6)+(G17*$C$6)+(H17*$D$6))</f>
+        <v>2.8457427088644544E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <f>(H17*$D$6)/((E17*$A$6)+(F17*$B$6)+(G17*$C$6)+(H17*$D$6))</f>
+        <v>8.7464047210929858E-4</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>(I17*$A$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
+        <v>1.4491157710183162E-2</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>(J17*$B$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
+        <v>0.18318819845400991</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>(K17*$C$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
+        <v>0.52786358174767545</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>(L17*$D$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
+        <v>0.27445706208813136</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>36.05801447368421</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.0989672616407979</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.97989889733840296</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.9284309999999999E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.4419855263157892</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9.4010327383592021</v>
+      </c>
+      <c r="K18" s="1">
+        <v>36.520101102661592</v>
+      </c>
+      <c r="L18" s="1">
+        <v>12.48071569</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ref="M18:M22" si="16">(U18/$A$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
+        <v>0.83235645622389676</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N22" si="17">(V18/$B$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
+        <v>0.10728182594386224</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O22" si="18">(W18/$C$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
+        <v>5.6752728519175198E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18:P22" si="19">(X18/$D$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
+        <v>3.608989313065779E-3</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ref="Q18:Q22" si="20">(Y18/$A$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
+        <v>6.9208654359033013E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" ref="R18:R22" si="21">(Z18/$B$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
+        <v>6.7666964330381704E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" ref="S18:S22" si="22">(AA18/$C$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
+        <v>0.43977385694855148</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" ref="T18:T22" si="23">(AB18/$D$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
+        <v>0.48563831328516355</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" ref="U18:U22" si="24">(E18*$A$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
+        <v>0.87300998570004085</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ref="V18:V22" si="25">(F18*$B$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
+        <v>9.8942943592800509E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ref="W18:W22" si="26">(G18*$C$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
+        <v>2.7366519884301065E-2</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" ref="X18:X22" si="27">(H18*$D$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
+        <v>6.8055082285760208E-4</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" ref="Y18:Y22" si="28">(I18*$A$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
+        <v>1.9444922820563357E-2</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" ref="Z18:Z22" si="29">(J18*$B$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
+        <v>0.16717499672767605</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" ref="AA18:AA22" si="30">(K18*$C$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
+        <v>0.56806521329335413</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" ref="AB18:AB22" si="31">(L18*$D$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
+        <v>0.24531486715840647</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>37.865071710526308</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.3053228824833703</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.97613713561470206</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.421685E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.1349282894736841</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.6946771175166297</v>
+      </c>
+      <c r="K19" s="1">
+        <v>39.0238628643853</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9.9857831499999996</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.86279120956056266</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="17"/>
+        <v>7.877715886146526E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="18"/>
+        <v>5.5805332039887114E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="19"/>
+        <v>2.6262995380849723E-3</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="20"/>
+        <v>1.1088109815619548E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="21"/>
+        <v>5.9933032376082579E-2</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="22"/>
+        <v>0.50851341753338053</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="23"/>
+        <v>0.42046544027491745</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="24"/>
+        <v>0.90043798732645441</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="25"/>
+        <v>7.2293162204064759E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="26"/>
+        <v>2.6776065488766081E-2</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="27"/>
+        <v>4.9278498071474424E-4</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="28"/>
+        <v>2.9712994071070871E-2</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="29"/>
+        <v>0.1412225213102648</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="30"/>
+        <v>0.62649020105938003</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="31"/>
+        <v>0.20257428355928422</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>38.863773728070171</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.8316424390243902</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.99466652724968319</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.1651099999999999E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.8362262719298243</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6.4683575609756101</v>
+      </c>
+      <c r="K20" s="1">
+        <v>40.705333472750311</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8.2883489000000008</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="16"/>
+        <v>0.87925634737436986</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="17"/>
+        <v>6.214595487791081E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="18"/>
+        <v>5.6460663800849069E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="19"/>
+        <v>2.1370339468703568E-3</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5595522319231555E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="21"/>
+        <v>5.3340206491369307E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="22"/>
+        <v>0.56157568988196893</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="23"/>
+        <v>0.36948858130743029</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="24"/>
+        <v>0.91565849445884917</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="25"/>
+        <v>5.6908834736568513E-2</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="26"/>
+        <v>2.7032546855859617E-2</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="27"/>
+        <v>4.001239487226213E-4</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="28"/>
+        <v>4.0286611223142137E-2</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="29"/>
+        <v>0.12116140945851138</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="30"/>
+        <v>0.66694816256801692</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="31"/>
+        <v>0.17160381675032951</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>39.389722105263154</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5216357982261641</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0188580988593154</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.0103819999999999E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.5102778947368418</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5.5783642017738355</v>
+      </c>
+      <c r="K21" s="1">
+        <v>41.88114190114068</v>
+      </c>
+      <c r="L21" s="1">
+        <v>7.0898961800000002</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="16"/>
+        <v>0.88895949090089454</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="17"/>
+        <v>5.150049409793752E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="18"/>
+        <v>5.7691348367576535E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="19"/>
+        <v>1.8486666335915489E-3</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="20"/>
+        <v>2.0123720807649032E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="21"/>
+        <v>4.7959569265639587E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="22"/>
+        <v>0.60239759848684715</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="23"/>
+        <v>0.32951911143986423</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="24"/>
+        <v>0.92493854271287479</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="25"/>
+        <v>4.7118462750247073E-2</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="26"/>
+        <v>2.7597170944820719E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="27"/>
+        <v>3.4582359205744613E-4</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="28"/>
+        <v>5.0499562459820929E-2</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="29"/>
+        <v>0.10582868923943613</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="30"/>
+        <v>0.69500116396111278</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="31"/>
+        <v>0.14867058433963024</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>39.706836169590638</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.0178204101995565</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0895554879594422</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.7123299999999999E-3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5.2931638304093562</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.9821795898004435</v>
+      </c>
+      <c r="K22" s="1">
+        <v>43.910444512040556</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4.9922876699999996</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9018243826912985</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="17"/>
+        <v>3.4668054390400695E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="18"/>
+        <v>6.2087471701497705E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="19"/>
+        <v>1.4200912168031233E-3</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="20"/>
+        <v>3.2692099125132913E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="21"/>
+        <v>3.6885012719758317E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="22"/>
+        <v>0.68044532993979545</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="23"/>
+        <v>0.24997755821531328</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="24"/>
+        <v>0.9383165054885575</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="25"/>
+        <v>3.1717990389289782E-2</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="26"/>
+        <v>2.9699854787419339E-2</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="27"/>
+        <v>2.6564933473345375E-4</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="28"/>
+        <v>7.7303644875166819E-2</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="29"/>
+        <v>7.6693032982866574E-2</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="30"/>
+        <v>0.73973023551679862</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="31"/>
+        <v>0.10627308662516798</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DBDQ.xlsx
+++ b/DBDQ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2564D4E1-BBE8-41BE-90D7-905D7A781AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA1C1EF-F95D-4332-AFAA-F0BE1B3021B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,10 +279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,12 +773,12 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1">
         <v>9.3000000000000013E-2</v>
       </c>
@@ -977,12 +977,12 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <v>0.35799999999999998</v>
       </c>
@@ -2292,12 +2292,12 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1">
         <v>0.10299999999999999</v>
       </c>
@@ -2496,12 +2496,12 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <v>0.25800000000000001</v>
       </c>
@@ -3643,7 +3643,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M22"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3658,7 +3658,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3747,32 +3747,32 @@
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45.034527727272732</v>
+        <v>95.257962289487111</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>2.2418643399999998</v>
+        <v>4.7420377105128955</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>4.965472272727272</v>
+        <v>9.4179295905981419</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>47.758135660000001</v>
+        <v>90.582070409401851</v>
       </c>
       <c r="M2" s="1">
         <f>(U2/$A$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="P2" s="1">
         <f>(X2/$D$4)/((U2/$A$4)+(V2/$B$4)+(W2/$C$4)+(X2/$D$4))</f>
-        <v>0.21204862373107589</v>
+        <v>0.21204862373107586</v>
       </c>
       <c r="Q2" s="1">
         <f>(Y2/$A$4)/((Y2/$A$4)+(Z2/$B$4)+(AA2/$C$4)+(AB2/$D$4))</f>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="X2" s="1">
         <f>(H2*$D$6)/((E2*$A$6)+(F2*$B$6)+(G2*$C$6)+(H2*$D$6))</f>
-        <v>5.2154284114059396E-2</v>
+        <v>5.2154284114059389E-2</v>
       </c>
       <c r="Y2" s="1">
         <f>(I2*$A$6)/((I2*$A$6)+(J2*$B$6)+(K2*$C$6)+(L2*$D$6))</f>
@@ -3843,63 +3843,63 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="1">
-        <v>2.4995558333333334</v>
+        <v>5.2083087287858767</v>
       </c>
       <c r="F3" s="1">
-        <v>42.438907017738359</v>
+        <v>88.429682951251891</v>
       </c>
       <c r="G3" s="1">
-        <v>0.92484092522179973</v>
+        <v>1.9270852042330608</v>
       </c>
       <c r="H3" s="1">
-        <v>2.1283949400000002</v>
+        <v>4.4349231157291715</v>
       </c>
       <c r="I3" s="1">
-        <v>4.4416666666666666E-4</v>
+        <v>8.5403032920403803E-4</v>
       </c>
       <c r="J3" s="1">
-        <v>5.0610929822616404</v>
+        <v>9.7313176114967863</v>
       </c>
       <c r="K3" s="1">
-        <v>1.5751590747782001</v>
+        <v>3.0286685700147564</v>
       </c>
       <c r="L3" s="1">
-        <v>45.37160506</v>
+        <v>87.239159788159242</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M16" si="0">(U3/$A$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
-        <v>2.9159324545837313E-2</v>
+        <v>2.9159324545837317E-2</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N16" si="1">(V3/$B$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
-        <v>0.74247260223226974</v>
+        <v>0.74247260223226963</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O16" si="2">(W3/$C$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
-        <v>2.7069459879200605E-2</v>
+        <v>2.7069459879200609E-2</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P16" si="3">(X3/$D$4)/((U3/$A$4)+(V3/$B$4)+(W3/$C$4)+(X3/$D$4))</f>
-        <v>0.20129861334269233</v>
+        <v>0.20129861334269239</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q16" si="4">(Y3/$A$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
-        <v>1.1707641884811122E-6</v>
+        <v>1.1707641884811124E-6</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R16" si="5">(Z3/$B$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
-        <v>2.0006421183944415E-2</v>
+        <v>2.0006421183944419E-2</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S16" si="6">(AA3/$C$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
-        <v>1.0417075687477762E-2</v>
+        <v>1.0417075687477765E-2</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" ref="T3:T16" si="7">(AB3/$D$4)/((Y3/$A$4)+(Z3/$B$4)+(AA3/$C$4)+(AB3/$D$4))</f>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="V3" s="1">
         <f t="shared" ref="V3:V16" si="9">(F3*$B$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
-        <v>0.89352784622604298</v>
+        <v>0.89352784622604287</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" ref="W3:W16" si="10">(G3*$C$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="X3" s="1">
         <f t="shared" ref="X3:X16" si="11">(H3*$D$6)/((E3*$A$6)+(F3*$B$6)+(G3*$C$6)+(H3*$D$6))</f>
-        <v>4.9531871738659847E-2</v>
+        <v>4.9531871738659854E-2</v>
       </c>
       <c r="Y3" s="1">
         <f t="shared" ref="Y3:Y16" si="12">(I3*$A$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
@@ -3931,11 +3931,11 @@
       </c>
       <c r="AA3" s="1">
         <f t="shared" ref="AA3:AA16" si="14">(K3*$C$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
-        <v>2.4347774542462647E-2</v>
+        <v>2.434777454246265E-2</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" ref="AB3:AB16" si="15">(L3*$D$6)/((I3*$A$6)+(J3*$B$6)+(K3*$C$6)+(L3*$D$6))</f>
-        <v>0.88621102818717534</v>
+        <v>0.88621102818717523</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>51</v>
@@ -3951,32 +3951,32 @@
       <c r="C4" s="1">
         <v>46.067999999999998</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>18.0153</v>
       </c>
       <c r="E4" s="1">
-        <v>4.9989407748538008</v>
+        <v>10.294855968274057</v>
       </c>
       <c r="F4" s="1">
-        <v>39.775849578713967</v>
+        <v>81.914681703859642</v>
       </c>
       <c r="G4" s="1">
-        <v>1.7935964892268694</v>
+        <v>3.6937460060891909</v>
       </c>
       <c r="H4" s="1">
-        <v>1.98926943</v>
+        <v>4.0967163217771008</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0592251461988304E-3</v>
+        <v>2.0590530474579789E-3</v>
       </c>
       <c r="J4" s="1">
-        <v>5.2241504212860308</v>
+        <v>10.155350714557802</v>
       </c>
       <c r="K4" s="1">
-        <v>3.2064035107731303</v>
+        <v>6.2330043276730001</v>
       </c>
       <c r="L4" s="1">
-        <v>43.01073057</v>
+        <v>83.60958590472174</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
@@ -3988,11 +3988,11 @@
       </c>
       <c r="O4" s="1">
         <f t="shared" si="2"/>
-        <v>5.2769810827203077E-2</v>
+        <v>5.2769810827203091E-2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="3"/>
-        <v>0.18911693272423141</v>
+        <v>0.18911693272423147</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="4"/>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="R4" s="1">
         <f t="shared" si="5"/>
-        <v>2.1489435623732449E-2</v>
+        <v>2.1489435623732442E-2</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="6"/>
-        <v>2.2066010505931492E-2</v>
+        <v>2.2066010505931485E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="7"/>
@@ -4016,27 +4016,27 @@
       </c>
       <c r="V4" s="1">
         <f t="shared" si="9"/>
-        <v>0.84031764038647505</v>
+        <v>0.84031764038647494</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="10"/>
-        <v>3.3145091848224069E-2</v>
+        <v>3.3145091848224076E-2</v>
       </c>
       <c r="X4" s="1">
         <f t="shared" si="11"/>
-        <v>4.6452195531225031E-2</v>
+        <v>4.6452195531225045E-2</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" si="12"/>
-        <v>1.4454220860358215E-5</v>
+        <v>1.4454220860358213E-5</v>
       </c>
       <c r="Z4" s="1">
         <f t="shared" si="13"/>
-        <v>9.4009666733786329E-2</v>
+        <v>9.4009666733786315E-2</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="14"/>
-        <v>5.0471415025438802E-2</v>
+        <v>5.0471415025438796E-2</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="15"/>
@@ -4047,39 +4047,39 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="1">
-        <v>7.0981820906432747</v>
+        <v>14.521029326263097</v>
       </c>
       <c r="F5" s="1">
-        <v>37.47670009977827</v>
+        <v>76.667554347162309</v>
       </c>
       <c r="G5" s="1">
-        <v>2.4549065652724966</v>
+        <v>5.0220985841639836</v>
       </c>
       <c r="H5" s="1">
-        <v>1.8522975699999999</v>
+        <v>3.7893177424106201</v>
       </c>
       <c r="I5" s="1">
-        <v>1.8179093567251459E-3</v>
+        <v>3.5563058545538891E-3</v>
       </c>
       <c r="J5" s="1">
-        <v>5.4232999002217293</v>
+        <v>10.609392110123835</v>
       </c>
       <c r="K5" s="1">
-        <v>4.645093434727503</v>
+        <v>9.0870168612971476</v>
       </c>
       <c r="L5" s="1">
-        <v>41.047702430000001</v>
+        <v>80.300034722724462</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>8.4024025286247264E-2</v>
+        <v>8.4024025286247236E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
@@ -4087,11 +4087,11 @@
       </c>
       <c r="O5" s="1">
         <f t="shared" si="2"/>
-        <v>7.2910360852158698E-2</v>
+        <v>7.2910360852158684E-2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="3"/>
-        <v>0.17776286941829494</v>
+        <v>0.17776286941829492</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="4"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="R5" s="1">
         <f t="shared" si="5"/>
-        <v>2.3068277512058276E-2</v>
+        <v>2.3068277512058283E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="6"/>
@@ -4111,35 +4111,35 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="8"/>
-        <v>0.11439293169923148</v>
+        <v>0.11439293169923145</v>
       </c>
       <c r="V5" s="1">
         <f t="shared" si="9"/>
-        <v>0.79645975051690532</v>
+        <v>0.7964597505169051</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="10"/>
-        <v>4.5636036945055462E-2</v>
+        <v>4.5636036945055442E-2</v>
       </c>
       <c r="X5" s="1">
         <f t="shared" si="11"/>
-        <v>4.3511280838807849E-2</v>
+        <v>4.3511280838807835E-2</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="12"/>
-        <v>2.5129036271133137E-5</v>
+        <v>2.512903627113314E-5</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" si="13"/>
-        <v>9.8859330501039788E-2</v>
+        <v>9.8859330501039816E-2</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="14"/>
-        <v>7.4066012455515792E-2</v>
+        <v>7.4066012455515806E-2</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="15"/>
-        <v>0.82704952800717324</v>
+        <v>0.82704952800717335</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>52</v>
@@ -4155,36 +4155,36 @@
       <c r="C6" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.997</v>
       </c>
       <c r="E6" s="1">
-        <v>8.2975893713450279</v>
+        <v>16.936980889876828</v>
       </c>
       <c r="F6" s="1">
-        <v>36.13250027716186</v>
+        <v>73.753404670898931</v>
       </c>
       <c r="G6" s="1">
-        <v>2.7951876172370085</v>
+        <v>5.7055172457985206</v>
       </c>
       <c r="H6" s="1">
-        <v>1.76568178</v>
+        <v>3.6040971934257202</v>
       </c>
       <c r="I6" s="1">
-        <v>2.4106286549707601E-3</v>
+        <v>4.7258850781620541E-3</v>
       </c>
       <c r="J6" s="1">
-        <v>5.5674997228381375</v>
+        <v>10.914731229373556</v>
       </c>
       <c r="K6" s="1">
-        <v>5.5048123827629905</v>
+        <v>10.791836662248947</v>
       </c>
       <c r="L6" s="1">
-        <v>39.934318220000002</v>
+        <v>78.288706223299329</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>9.9001135543089966E-2</v>
+        <v>9.900113554308998E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="R6" s="1">
         <f t="shared" si="5"/>
-        <v>2.4137074792187622E-2</v>
+        <v>2.4137074792187629E-2</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="6"/>
@@ -4216,15 +4216,15 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="8"/>
-        <v>0.1343871079742695</v>
+        <v>0.13438710797426953</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="9"/>
-        <v>0.77170998527270807</v>
+        <v>0.77170998527270818</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="10"/>
-        <v>5.2220080187946639E-2</v>
+        <v>5.2220080187946633E-2</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="11"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="13"/>
-        <v>0.10210954301192095</v>
+        <v>0.10210954301192096</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="14"/>
@@ -4252,32 +4252,32 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
-        <v>9.9964466812865478</v>
+        <v>20.388272394511365</v>
       </c>
       <c r="F7" s="1">
-        <v>34.182841463414633</v>
+        <v>69.717681211580256</v>
       </c>
       <c r="G7" s="1">
-        <v>3.2187356907477818</v>
+        <v>6.5647786779827619</v>
       </c>
       <c r="H7" s="1">
-        <v>1.6323524899999999</v>
+        <v>3.3292677159255977</v>
       </c>
       <c r="I7" s="1">
-        <v>3.5533187134502921E-3</v>
+        <v>6.9714438861443922E-3</v>
       </c>
       <c r="J7" s="1">
-        <v>5.8171585365853655</v>
+        <v>11.412990948743957</v>
       </c>
       <c r="K7" s="1">
-        <v>6.7812643092522169</v>
+        <v>13.304521046793759</v>
       </c>
       <c r="L7" s="1">
-        <v>38.367647509999998</v>
+        <v>75.275516560576136</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>0.12106664162108645</v>
+        <v>0.12106664162108648</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="1"/>
@@ -4293,11 +4293,11 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="4"/>
-        <v>1.0550297613867877E-5</v>
+        <v>1.055029761386788E-5</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>2.5902582894345678E-2</v>
+        <v>2.5902582894345685E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="6"/>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="8"/>
-        <v>0.16343148032269822</v>
+        <v>0.16343148032269825</v>
       </c>
       <c r="V7" s="1">
         <f t="shared" si="9"/>
@@ -4325,11 +4325,11 @@
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="12"/>
-        <v>4.9751220788250494E-5</v>
+        <v>4.9751220788250501E-5</v>
       </c>
       <c r="Z7" s="1">
         <f t="shared" si="13"/>
-        <v>0.10740658651205365</v>
+        <v>0.10740658651205366</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="14"/>
@@ -4345,32 +4345,32 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
-        <v>12.493711111111109</v>
+        <v>25.605505566848745</v>
       </c>
       <c r="F8" s="1">
-        <v>31.197670864745014</v>
+        <v>63.938739090062121</v>
       </c>
       <c r="G8" s="1">
-        <v>3.6876251964512043</v>
+        <v>7.5576829539630364</v>
       </c>
       <c r="H8" s="1">
-        <v>1.4140583600000001</v>
+        <v>2.8980723891260949</v>
       </c>
       <c r="I8" s="1">
-        <v>6.2888888888888881E-3</v>
+        <v>1.2281322743224661E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>6.3023291352549888</v>
+        <v>12.307569669555663</v>
       </c>
       <c r="K8" s="1">
-        <v>8.8123748035487957</v>
+        <v>17.209338725614735</v>
       </c>
       <c r="L8" s="1">
-        <v>36.085941640000001</v>
+        <v>70.470810282086376</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>0.15617746367409313</v>
+        <v>0.15617746367409316</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="1"/>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="O8" s="1">
         <f t="shared" si="2"/>
-        <v>0.11565691742851329</v>
+        <v>0.11565691742851335</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="3"/>
@@ -4386,15 +4386,15 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="4"/>
-        <v>1.9402608471159517E-5</v>
+        <v>1.940260847115952E-5</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="5"/>
-        <v>2.9160092888423084E-2</v>
+        <v>2.916009288842308E-2</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="6"/>
-        <v>6.8214561495966039E-2</v>
+        <v>6.8214561495966025E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="7"/>
@@ -4402,31 +4402,31 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" si="8"/>
-        <v>0.20840447412697952</v>
+        <v>0.20840447412697949</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="9"/>
-        <v>0.68625921081880281</v>
+        <v>0.6862592108188027</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="10"/>
-        <v>7.0955040770777536E-2</v>
+        <v>7.095504077077755E-2</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="11"/>
-        <v>3.438127428344033E-2</v>
+        <v>3.4381274283440323E-2</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="12"/>
-        <v>8.8474515934726074E-5</v>
+        <v>8.8474515934726088E-5</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="13"/>
-        <v>0.1169218799032247</v>
+        <v>0.11692187990322468</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="14"/>
-        <v>0.14300727623180035</v>
+        <v>0.14300727623180032</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="15"/>
@@ -4438,28 +4438,28 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E9" s="1">
-        <v>14.290391856725146</v>
+        <v>29.551384193701924</v>
       </c>
       <c r="F9" s="1">
-        <v>28.939281640798228</v>
+        <v>59.844113347704507</v>
       </c>
       <c r="G9" s="1">
-        <v>3.8864731812420787</v>
+        <v>8.0369148228328093</v>
       </c>
       <c r="H9" s="1">
-        <v>1.24162825</v>
+        <v>2.5675876357607637</v>
       </c>
       <c r="I9" s="1">
-        <v>9.6081432748538007E-3</v>
+        <v>1.8605207776389313E-2</v>
       </c>
       <c r="J9" s="1">
-        <v>6.760718359201773</v>
+        <v>13.091454424893842</v>
       </c>
       <c r="K9" s="1">
-        <v>10.413526818757921</v>
+        <v>20.164752398630483</v>
       </c>
       <c r="L9" s="1">
-        <v>34.458371749999998</v>
+        <v>66.725187968699288</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="0"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>0.12580821725428878</v>
+        <v>0.12580821725428876</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="3"/>
@@ -4483,11 +4483,11 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="5"/>
-        <v>3.2122106614234765E-2</v>
+        <v>3.2122106614234751E-2</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="6"/>
-        <v>8.2776169139927164E-2</v>
+        <v>8.277616913992715E-2</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="7"/>
@@ -4495,19 +4495,19 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="8"/>
-        <v>0.24325771794455342</v>
+        <v>0.24325771794455334</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="9"/>
-        <v>0.64962192295593157</v>
+        <v>0.64962192295593146</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="10"/>
-        <v>7.631309495172546E-2</v>
+        <v>7.6313094951725433E-2</v>
       </c>
       <c r="X9" s="1">
         <f t="shared" si="11"/>
-        <v>3.0807264147789566E-2</v>
+        <v>3.0807264147789559E-2</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="12"/>
@@ -4515,11 +4515,11 @@
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="13"/>
-        <v>0.12528077089974957</v>
+        <v>0.12528077089974951</v>
       </c>
       <c r="AA9" s="1">
         <f t="shared" si="14"/>
-        <v>0.1687951167496764</v>
+        <v>0.16879511674967637</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="15"/>
@@ -4531,36 +4531,36 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E10" s="1">
-        <v>16.682632821637426</v>
+        <v>35.227074808792999</v>
       </c>
       <c r="F10" s="1">
-        <v>25.744098636363635</v>
+        <v>54.3612808747963</v>
       </c>
       <c r="G10" s="1">
-        <v>3.9349254372623577</v>
+        <v>8.3089950026160331</v>
       </c>
       <c r="H10" s="1">
-        <v>0.99576041000000004</v>
+        <v>2.1026493137946711</v>
       </c>
       <c r="I10" s="1">
-        <v>1.7367178362573097E-2</v>
+        <v>3.299074147497999E-2</v>
       </c>
       <c r="J10" s="1">
-        <v>7.5559013636363632</v>
+        <v>14.353211747705217</v>
       </c>
       <c r="K10" s="1">
-        <v>12.765074562737642</v>
+        <v>24.248571991157164</v>
       </c>
       <c r="L10" s="1">
-        <v>32.304239590000002</v>
+        <v>61.365225519662644</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="0"/>
-        <v>0.22779166111258103</v>
+        <v>0.22779166111258098</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="1"/>
-        <v>0.52717225537743106</v>
+        <v>0.52717225537743118</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="2"/>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="S10" s="1">
         <f t="shared" si="6"/>
-        <v>0.10491316986680495</v>
+        <v>0.10491316986680498</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="7"/>
@@ -4588,23 +4588,23 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="8"/>
-        <v>0.29463103990417111</v>
+        <v>0.294631039904171</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" si="9"/>
-        <v>0.5995729536998663</v>
+        <v>0.59957295369986618</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="10"/>
-        <v>8.016251167950228E-2</v>
+        <v>8.0162511679502266E-2</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" si="11"/>
-        <v>2.5633494716460391E-2</v>
+        <v>2.563349471646038E-2</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="12"/>
-        <v>2.4190697650239699E-4</v>
+        <v>2.4190697650239702E-4</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" si="13"/>
@@ -4612,11 +4612,11 @@
       </c>
       <c r="AA10" s="1">
         <f t="shared" si="14"/>
-        <v>0.20509892604473565</v>
+        <v>0.20509892604473567</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="15"/>
-        <v>0.65586991195865496</v>
+        <v>0.65586991195865485</v>
       </c>
       <c r="AC10" s="2" t="s">
         <v>38</v>
@@ -4624,28 +4624,28 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
-        <v>19.958641198830406</v>
+        <v>44.278814248033541</v>
       </c>
       <c r="F11" s="1">
-        <v>20.915546419068733</v>
+        <v>46.401735747438487</v>
       </c>
       <c r="G11" s="1">
-        <v>3.5526945754119135</v>
+        <v>7.8817541543799567</v>
       </c>
       <c r="H11" s="1">
-        <v>0.64804028999999996</v>
+        <v>1.4376958501480204</v>
       </c>
       <c r="I11" s="1">
-        <v>4.1358801169590641E-2</v>
+        <v>7.5300396539310852E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>9.0844535809312639</v>
+        <v>16.539719180498125</v>
       </c>
       <c r="K11" s="1">
-        <v>16.447305424588087</v>
+        <v>29.944983545249592</v>
       </c>
       <c r="L11" s="1">
-        <v>29.351959709999999</v>
+        <v>53.439996877712971</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="0"/>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="O11" s="1">
         <f t="shared" si="2"/>
-        <v>0.13610093814866051</v>
+        <v>0.13610093814866053</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="W11" s="1">
         <f t="shared" si="10"/>
-        <v>7.7935300722966172E-2</v>
+        <v>7.7935300722966186E-2</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="11"/>
@@ -4717,32 +4717,32 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
-        <v>22.613436622807015</v>
+        <v>53.249904689692748</v>
       </c>
       <c r="F12" s="1">
-        <v>16.572340421286032</v>
+        <v>39.024389023143605</v>
       </c>
       <c r="G12" s="1">
-        <v>2.8909353738910011</v>
+        <v>6.8075470213358562</v>
       </c>
       <c r="H12" s="1">
-        <v>0.38991123999999999</v>
+        <v>0.91815926582779728</v>
       </c>
       <c r="I12" s="1">
-        <v>8.6563377192982446E-2</v>
+        <v>0.15045766943763778</v>
       </c>
       <c r="J12" s="1">
-        <v>10.727659578713968</v>
+        <v>18.645976059082219</v>
       </c>
       <c r="K12" s="1">
-        <v>19.809064626108999</v>
+        <v>34.430561676670926</v>
       </c>
       <c r="L12" s="1">
-        <v>26.910088760000001</v>
+        <v>46.773004594809223</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="0"/>
-        <v>0.39068680871539596</v>
+        <v>0.39068680871539602</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="1"/>
@@ -4754,15 +4754,15 @@
       </c>
       <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>5.4613735462418794E-2</v>
+        <v>5.4613735462418801E-2</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="4"/>
-        <v>3.047551550983398E-4</v>
+        <v>3.0475515509833975E-4</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="5"/>
-        <v>5.6640030315139735E-2</v>
+        <v>5.6640030315139721E-2</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="6"/>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="8"/>
-        <v>0.46750316759955829</v>
+        <v>0.46750316759955834</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="9"/>
@@ -4786,15 +4786,15 @@
       </c>
       <c r="X12" s="1">
         <f t="shared" si="11"/>
-        <v>1.1749592401019714E-2</v>
+        <v>1.1749592401019715E-2</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="12"/>
-        <v>1.134403285860614E-3</v>
+        <v>1.1344032858606138E-3</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="13"/>
-        <v>0.18539102409788097</v>
+        <v>0.18539102409788091</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="14"/>
@@ -4810,28 +4810,28 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
-        <v>24.840614166666665</v>
+        <v>61.931353353869753</v>
       </c>
       <c r="F13" s="1">
-        <v>12.824178259423503</v>
+        <v>31.972587711745241</v>
       </c>
       <c r="G13" s="1">
-        <v>2.2230142332065905</v>
+        <v>5.5423058006409009</v>
       </c>
       <c r="H13" s="1">
-        <v>0.22210991999999999</v>
+        <v>0.55375313374409973</v>
       </c>
       <c r="I13" s="1">
-        <v>0.15938583333333331</v>
+        <v>0.26613059162685293</v>
       </c>
       <c r="J13" s="1">
-        <v>12.175821740576497</v>
+        <v>20.330280148461892</v>
       </c>
       <c r="K13" s="1">
-        <v>22.776985766793409</v>
+        <v>38.031314143936712</v>
       </c>
       <c r="L13" s="1">
-        <v>24.777890079999999</v>
+        <v>41.372275115974539</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="0"/>
@@ -4843,19 +4843,19 @@
       </c>
       <c r="O13" s="1">
         <f t="shared" si="2"/>
-        <v>0.10840400546523156</v>
+        <v>0.10840400546523157</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>3.4998308613872348E-2</v>
+        <v>3.4998308613872355E-2</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="4"/>
-        <v>5.7655077831728974E-4</v>
+        <v>5.7655077831728963E-4</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="5"/>
-        <v>6.6052270548843231E-2</v>
+        <v>6.6052270548843245E-2</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="6"/>
@@ -4875,19 +4875,19 @@
       </c>
       <c r="W13" s="1">
         <f t="shared" si="10"/>
-        <v>5.7443186377321098E-2</v>
+        <v>5.7443186377321105E-2</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="11"/>
-        <v>7.2524106952190316E-3</v>
+        <v>7.2524106952190333E-3</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="12"/>
-        <v>2.0276659154486207E-3</v>
+        <v>2.0276659154486202E-3</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="13"/>
-        <v>0.20426567825842662</v>
+        <v>0.20426567825842665</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="14"/>
@@ -4903,32 +4903,32 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
-        <v>27.02819795321637</v>
+        <v>70.308356123501596</v>
       </c>
       <c r="F14" s="1">
-        <v>9.6154069844789358</v>
+        <v>25.012524316542535</v>
       </c>
       <c r="G14" s="1">
-        <v>1.6780257541191379</v>
+        <v>4.365042483010825</v>
       </c>
       <c r="H14" s="1">
-        <v>0.12073867000000001</v>
+        <v>0.31407707694503367</v>
       </c>
       <c r="I14" s="1">
-        <v>0.27180204678362574</v>
+        <v>0.44154078700849309</v>
       </c>
       <c r="J14" s="1">
-        <v>13.084593015521065</v>
+        <v>21.255842500546805</v>
       </c>
       <c r="K14" s="1">
-        <v>25.62197424588086</v>
+        <v>41.62274275382358</v>
       </c>
       <c r="L14" s="1">
-        <v>22.579261330000001</v>
+        <v>36.67987395862113</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="0"/>
-        <v>0.57953997480985264</v>
+        <v>0.57953997480985242</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="1"/>
@@ -4936,19 +4936,19 @@
       </c>
       <c r="O14" s="1">
         <f t="shared" si="2"/>
-        <v>9.0274036509202529E-2</v>
+        <v>9.0274036509202502E-2</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="3"/>
-        <v>2.0988753260265208E-2</v>
+        <v>2.0988753260265201E-2</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="4"/>
-        <v>1.0170875344592341E-3</v>
+        <v>1.0170875344592339E-3</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="5"/>
-        <v>7.3428972679119034E-2</v>
+        <v>7.3428972679119006E-2</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="6"/>
@@ -4956,39 +4956,39 @@
       </c>
       <c r="T14" s="1">
         <f t="shared" si="7"/>
-        <v>0.68499797370994764</v>
+        <v>0.68499797370994753</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="8"/>
-        <v>0.64630191395035486</v>
+        <v>0.64630191395035497</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="9"/>
-        <v>0.30320506920919466</v>
+        <v>0.30320506920919477</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="10"/>
-        <v>4.6284744911476425E-2</v>
+        <v>4.6284744911476432E-2</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="11"/>
-        <v>4.208271928973952E-3</v>
+        <v>4.2082719289739529E-3</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="12"/>
-        <v>3.397806454853076E-3</v>
+        <v>3.3978064548530755E-3</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="13"/>
-        <v>0.21570319050861092</v>
+        <v>0.21570319050861086</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="14"/>
-        <v>0.36947019179292068</v>
+        <v>0.36947019179292062</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="15"/>
-        <v>0.41142881124361547</v>
+        <v>0.41142881124361541</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>42</v>
@@ -4996,28 +4996,28 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
-        <v>29.547369166666662</v>
+        <v>78.046856559564532</v>
       </c>
       <c r="F15" s="1">
-        <v>6.9489751108647448</v>
+        <v>18.355125312661755</v>
       </c>
       <c r="G15" s="1">
-        <v>1.2980852217997463</v>
+        <v>3.4287814436686985</v>
       </c>
       <c r="H15" s="1">
-        <v>6.4070470000000004E-2</v>
+        <v>0.16923668410503045</v>
       </c>
       <c r="I15" s="1">
-        <v>0.45263083333333326</v>
+        <v>0.72838736288944639</v>
       </c>
       <c r="J15" s="1">
-        <v>13.051024889135254</v>
+        <v>21.002107903243651</v>
       </c>
       <c r="K15" s="1">
-        <v>28.701914778200251</v>
+        <v>46.187997978862647</v>
       </c>
       <c r="L15" s="1">
-        <v>19.935929529999999</v>
+        <v>32.081506755004263</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="1"/>
-        <v>0.23822867784828106</v>
+        <v>0.238228677848281</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="2"/>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="P15" s="1">
         <f t="shared" si="3"/>
-        <v>1.1874176977007852E-2</v>
+        <v>1.1874176977007853E-2</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="4"/>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="R15" s="1">
         <f t="shared" si="5"/>
-        <v>7.715930091449491E-2</v>
+        <v>7.7159300914494897E-2</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="6"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="V15" s="1">
         <f t="shared" si="9"/>
-        <v>0.22737701135360394</v>
+        <v>0.22737701135360391</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="10"/>
@@ -5065,23 +5065,23 @@
       </c>
       <c r="X15" s="1">
         <f t="shared" si="11"/>
-        <v>2.3172469983018485E-3</v>
+        <v>2.317246998301849E-3</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="12"/>
-        <v>5.6699510100995413E-3</v>
+        <v>5.6699510100995422E-3</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="13"/>
-        <v>0.21559080062177752</v>
+        <v>0.21559080062177755</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="14"/>
-        <v>0.41473142476166569</v>
+        <v>0.41473142476166575</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="15"/>
-        <v>0.36400782360645711</v>
+        <v>0.36400782360645717</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>43</v>
@@ -5089,32 +5089,32 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
-        <v>32.533999225146196</v>
+        <v>84.505845374475157</v>
       </c>
       <c r="F16" s="1">
-        <v>4.8514529600886913</v>
+        <v>12.601467494039767</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0787034600760457</v>
+        <v>2.8018918661447785</v>
       </c>
       <c r="H16" s="1">
-        <v>3.4955369999999999E-2</v>
+        <v>9.0795265340278611E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>0.76600077485380103</v>
+        <v>1.2455117112933123</v>
       </c>
       <c r="J16" s="1">
-        <v>11.848547039911308</v>
+        <v>19.265651660516742</v>
       </c>
       <c r="K16" s="1">
-        <v>32.221296539923955</v>
+        <v>52.391594775069997</v>
       </c>
       <c r="L16" s="1">
-        <v>16.665044630000001</v>
+        <v>27.097241853119947</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="0"/>
-        <v>0.76014871107571136</v>
+        <v>0.76014871107571147</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="1"/>
@@ -5122,15 +5122,15 @@
       </c>
       <c r="O16" s="1">
         <f t="shared" si="2"/>
-        <v>6.3235523254395479E-2</v>
+        <v>6.3235523254395493E-2</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="3"/>
-        <v>6.6213868638874077E-3</v>
+        <v>6.6213868638874086E-3</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="4"/>
-        <v>3.2667272987055964E-3</v>
+        <v>3.2667272987055968E-3</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="5"/>
@@ -5142,27 +5142,27 @@
       </c>
       <c r="T16" s="1">
         <f t="shared" si="7"/>
-        <v>0.57618785760111157</v>
+        <v>0.57618785760111169</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="8"/>
-        <v>0.80876186587614851</v>
+        <v>0.8087618658761484</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="9"/>
-        <v>0.15903967302483624</v>
+        <v>0.15903967302483618</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="10"/>
-        <v>3.0931870752681757E-2</v>
+        <v>3.0931870752681754E-2</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="11"/>
-        <v>1.2665903463337346E-3</v>
+        <v>1.2665903463337344E-3</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="12"/>
-        <v>9.8395211846340411E-3</v>
+        <v>9.8395211846340428E-3</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="13"/>
@@ -5170,11 +5170,11 @@
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="14"/>
-        <v>0.47742886158551051</v>
+        <v>0.47742886158551057</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="15"/>
-        <v>0.31202564802178107</v>
+        <v>0.31202564802178112</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>44</v>
@@ -5182,28 +5182,28 @@
     </row>
     <row r="17" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
-        <v>34.601347836257304</v>
+        <v>87.821377026132822</v>
       </c>
       <c r="F17" s="1">
-        <v>3.7681615631929044</v>
+        <v>9.5639377663139307</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0057158428390367</v>
+        <v>2.5525985471170474</v>
       </c>
       <c r="H17" s="1">
-        <v>2.446195E-2</v>
+        <v>6.2086660436195922E-2</v>
       </c>
       <c r="I17" s="1">
-        <v>1.09865216374269</v>
+        <v>1.8129480077583002</v>
       </c>
       <c r="J17" s="1">
-        <v>10.531838436807096</v>
+        <v>17.379181639252252</v>
       </c>
       <c r="K17" s="1">
-        <v>34.694284157160958</v>
+        <v>57.250998468025202</v>
       </c>
       <c r="L17" s="1">
-        <v>14.27553805</v>
+        <v>23.556871884964249</v>
       </c>
       <c r="M17" s="1">
         <f>(U17/$A$4)/((U17/$A$4)+(V17/$B$4)+(W17/$C$4)+(X17/$D$4))</f>
@@ -5219,11 +5219,11 @@
       </c>
       <c r="P17" s="1">
         <f>(X17/$D$4)/((U17/$A$4)+(V17/$B$4)+(W17/$C$4)+(X17/$D$4))</f>
-        <v>4.6148602385484129E-3</v>
+        <v>4.6148602385484138E-3</v>
       </c>
       <c r="Q17" s="1">
         <f>(Y17/$A$4)/((Y17/$A$4)+(Z17/$B$4)+(AA17/$C$4)+(AB17/$D$4))</f>
-        <v>5.001238485898305E-3</v>
+        <v>5.0012384858983032E-3</v>
       </c>
       <c r="R17" s="1">
         <f>(Z17/$B$4)/((Y17/$A$4)+(Z17/$B$4)+(AA17/$C$4)+(AB17/$D$4))</f>
@@ -5251,15 +5251,15 @@
       </c>
       <c r="X17" s="1">
         <f>(H17*$D$6)/((E17*$A$6)+(F17*$B$6)+(G17*$C$6)+(H17*$D$6))</f>
-        <v>8.7464047210929858E-4</v>
+        <v>8.7464047210929869E-4</v>
       </c>
       <c r="Y17" s="1">
         <f>(I17*$A$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
-        <v>1.4491157710183162E-2</v>
+        <v>1.4491157710183158E-2</v>
       </c>
       <c r="Z17" s="1">
         <f>(J17*$B$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
-        <v>0.18318819845400991</v>
+        <v>0.18318819845400994</v>
       </c>
       <c r="AA17" s="1">
         <f>(K17*$C$6)/((I17*$A$6)+(J17*$B$6)+(K17*$C$6)+(L17*$D$6))</f>
@@ -5275,28 +5275,28 @@
     </row>
     <row r="18" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
-        <v>36.05801447368421</v>
+        <v>89.794467487543443</v>
       </c>
       <c r="F18" s="1">
-        <v>3.0989672616407979</v>
+        <v>7.7172889046193234</v>
       </c>
       <c r="G18" s="1">
-        <v>0.97989889733840296</v>
+        <v>2.4402203216804743</v>
       </c>
       <c r="H18" s="1">
-        <v>1.9284309999999999E-2</v>
+        <v>4.8023286156770484E-2</v>
       </c>
       <c r="I18" s="1">
-        <v>1.4419855263157892</v>
+        <v>2.409580744506461</v>
       </c>
       <c r="J18" s="1">
-        <v>9.4010327383592021</v>
+        <v>15.709275198275716</v>
       </c>
       <c r="K18" s="1">
-        <v>36.520101102661592</v>
+        <v>61.025669674531322</v>
       </c>
       <c r="L18" s="1">
-        <v>12.48071569</v>
+        <v>20.855474382686513</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ref="M18:M22" si="16">(U18/$A$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
@@ -5304,11 +5304,11 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" ref="N18:N22" si="17">(V18/$B$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
-        <v>0.10728182594386224</v>
+        <v>0.10728182594386221</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ref="O18:O22" si="18">(W18/$C$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
-        <v>5.6752728519175198E-2</v>
+        <v>5.6752728519175177E-2</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ref="P18:P22" si="19">(X18/$D$4)/((U18/$A$4)+(V18/$B$4)+(W18/$C$4)+(X18/$D$4))</f>
@@ -5320,11 +5320,11 @@
       </c>
       <c r="R18" s="1">
         <f t="shared" ref="R18:R22" si="21">(Z18/$B$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
-        <v>6.7666964330381704E-2</v>
+        <v>6.7666964330381718E-2</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" ref="S18:S22" si="22">(AA18/$C$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
-        <v>0.43977385694855148</v>
+        <v>0.43977385694855142</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" ref="T18:T22" si="23">(AB18/$D$4)/((Y18/$A$4)+(Z18/$B$4)+(AA18/$C$4)+(AB18/$D$4))</f>
@@ -5336,11 +5336,11 @@
       </c>
       <c r="V18" s="1">
         <f t="shared" ref="V18:V22" si="25">(F18*$B$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
-        <v>9.8942943592800509E-2</v>
+        <v>9.8942943592800495E-2</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" ref="W18:W22" si="26">(G18*$C$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
-        <v>2.7366519884301065E-2</v>
+        <v>2.7366519884301058E-2</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" ref="X18:X22" si="27">(H18*$D$6)/((E18*$A$6)+(F18*$B$6)+(G18*$C$6)+(H18*$D$6))</f>
@@ -5352,11 +5352,11 @@
       </c>
       <c r="Z18" s="1">
         <f t="shared" ref="Z18:Z22" si="29">(J18*$B$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
-        <v>0.16717499672767605</v>
+        <v>0.16717499672767608</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ref="AA18:AA22" si="30">(K18*$C$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
-        <v>0.56806521329335413</v>
+        <v>0.56806521329335402</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" ref="AB18:AB22" si="31">(L18*$D$6)/((I18*$A$6)+(J18*$B$6)+(K18*$C$6)+(L18*$D$6))</f>
@@ -5368,28 +5368,28 @@
     </row>
     <row r="19" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
-        <v>37.865071710526308</v>
+        <v>91.993156145343818</v>
       </c>
       <c r="F19" s="1">
-        <v>2.3053228824833703</v>
+        <v>5.6007797770727921</v>
       </c>
       <c r="G19" s="1">
-        <v>0.97613713561470206</v>
+        <v>2.3715242538655632</v>
       </c>
       <c r="H19" s="1">
-        <v>1.421685E-2</v>
+        <v>3.4539823717839535E-2</v>
       </c>
       <c r="I19" s="1">
-        <v>2.1349282894736841</v>
+        <v>3.628408312309169</v>
       </c>
       <c r="J19" s="1">
-        <v>7.6946771175166297</v>
+        <v>13.077455833711104</v>
       </c>
       <c r="K19" s="1">
-        <v>39.0238628643853</v>
+        <v>66.322840487750284</v>
       </c>
       <c r="L19" s="1">
-        <v>9.9857831499999996</v>
+        <v>16.971295366229423</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="16"/>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" si="17"/>
-        <v>7.877715886146526E-2</v>
+        <v>7.8777158861465274E-2</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="18"/>
@@ -5405,19 +5405,19 @@
       </c>
       <c r="P19" s="1">
         <f t="shared" si="19"/>
-        <v>2.6262995380849723E-3</v>
+        <v>2.6262995380849732E-3</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="20"/>
-        <v>1.1088109815619548E-2</v>
+        <v>1.1088109815619546E-2</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="21"/>
-        <v>5.9933032376082579E-2</v>
+        <v>5.9933032376082572E-2</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="22"/>
-        <v>0.50851341753338053</v>
+        <v>0.50851341753338042</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="23"/>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="V19" s="1">
         <f t="shared" si="25"/>
-        <v>7.2293162204064759E-2</v>
+        <v>7.2293162204064773E-2</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="26"/>
@@ -5437,11 +5437,11 @@
       </c>
       <c r="X19" s="1">
         <f t="shared" si="27"/>
-        <v>4.9278498071474424E-4</v>
+        <v>4.9278498071474435E-4</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="28"/>
-        <v>2.9712994071070871E-2</v>
+        <v>2.9712994071070867E-2</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="29"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="31"/>
-        <v>0.20257428355928422</v>
+        <v>0.20257428355928425</v>
       </c>
       <c r="AC19" s="2" t="s">
         <v>56</v>
@@ -5461,28 +5461,28 @@
     </row>
     <row r="20" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
-        <v>38.863773728070171</v>
+        <v>93.194623321251512</v>
       </c>
       <c r="F20" s="1">
-        <v>1.8316424390243902</v>
+        <v>4.3922452914243211</v>
       </c>
       <c r="G20" s="1">
-        <v>0.99466652724968319</v>
+        <v>2.3851922612018202</v>
       </c>
       <c r="H20" s="1">
-        <v>1.1651099999999999E-2</v>
+        <v>2.7939126122329634E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>2.8362262719298243</v>
+        <v>4.8650267950072763</v>
       </c>
       <c r="J20" s="1">
-        <v>6.4683575609756101</v>
+        <v>11.095282899421953</v>
       </c>
       <c r="K20" s="1">
-        <v>40.705333472750311</v>
+        <v>69.822545543903885</v>
       </c>
       <c r="L20" s="1">
-        <v>8.2883489000000008</v>
+        <v>14.217144761666884</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="16"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="O20" s="1">
         <f t="shared" si="18"/>
-        <v>5.6460663800849069E-2</v>
+        <v>5.6460663800849083E-2</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="19"/>
@@ -5502,19 +5502,19 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="20"/>
-        <v>1.5595522319231555E-2</v>
+        <v>1.5595522319231551E-2</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="21"/>
-        <v>5.3340206491369307E-2</v>
+        <v>5.3340206491369314E-2</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="22"/>
-        <v>0.56157568988196893</v>
+        <v>0.56157568988196882</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="23"/>
-        <v>0.36948858130743029</v>
+        <v>0.36948858130743034</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="24"/>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="W20" s="1">
         <f t="shared" si="26"/>
-        <v>2.7032546855859617E-2</v>
+        <v>2.7032546855859624E-2</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" si="27"/>
@@ -5538,15 +5538,15 @@
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="29"/>
-        <v>0.12116140945851138</v>
+        <v>0.12116140945851141</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="30"/>
-        <v>0.66694816256801692</v>
+        <v>0.66694816256801703</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="31"/>
-        <v>0.17160381675032951</v>
+        <v>0.17160381675032957</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>46</v>
@@ -5554,28 +5554,28 @@
     </row>
     <row r="21" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E21" s="1">
-        <v>39.389722105263154</v>
+        <v>93.918506754623394</v>
       </c>
       <c r="F21" s="1">
-        <v>1.5216357982261641</v>
+        <v>3.628097746205869</v>
       </c>
       <c r="G21" s="1">
-        <v>1.0188580988593154</v>
+        <v>2.4293045526953732</v>
       </c>
       <c r="H21" s="1">
-        <v>1.0103819999999999E-2</v>
+        <v>2.4090946475367605E-2</v>
       </c>
       <c r="I21" s="1">
-        <v>3.5102778947368418</v>
+        <v>6.0459821411280128</v>
       </c>
       <c r="J21" s="1">
-        <v>5.5783642017738355</v>
+        <v>9.6079830007763096</v>
       </c>
       <c r="K21" s="1">
-        <v>41.88114190114068</v>
+        <v>72.134641067592014</v>
       </c>
       <c r="L21" s="1">
-        <v>7.0898961800000002</v>
+        <v>12.211393790503656</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="16"/>
@@ -5583,27 +5583,27 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="17"/>
-        <v>5.150049409793752E-2</v>
+        <v>5.1500494097937513E-2</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="18"/>
-        <v>5.7691348367576535E-2</v>
+        <v>5.7691348367576528E-2</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="19"/>
-        <v>1.8486666335915489E-3</v>
+        <v>1.8486666335915483E-3</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="20"/>
-        <v>2.0123720807649032E-2</v>
+        <v>2.0123720807649036E-2</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="21"/>
-        <v>4.7959569265639587E-2</v>
+        <v>4.7959569265639594E-2</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="22"/>
-        <v>0.60239759848684715</v>
+        <v>0.60239759848684704</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="23"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="U21" s="1">
         <f t="shared" si="24"/>
-        <v>0.92493854271287479</v>
+        <v>0.9249385427128749</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="25"/>
@@ -5623,15 +5623,15 @@
       </c>
       <c r="X21" s="1">
         <f t="shared" si="27"/>
-        <v>3.4582359205744613E-4</v>
+        <v>3.4582359205744608E-4</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="28"/>
-        <v>5.0499562459820929E-2</v>
+        <v>5.0499562459820943E-2</v>
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="29"/>
-        <v>0.10582868923943613</v>
+        <v>0.10582868923943614</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="30"/>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="AB21" s="1">
         <f t="shared" si="31"/>
-        <v>0.14867058433963024</v>
+        <v>0.14867058433963026</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>57</v>
@@ -5647,28 +5647,28 @@
     </row>
     <row r="22" spans="5:29" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
-        <v>39.706836169590638</v>
+        <v>94.942632940456448</v>
       </c>
       <c r="F22" s="1">
-        <v>1.0178204101995565</v>
+        <v>2.4337005646118084</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0895554879594422</v>
+        <v>2.6052256170643102</v>
       </c>
       <c r="H22" s="1">
-        <v>7.7123299999999999E-3</v>
+        <v>1.8440877867434976E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>5.2931638304093562</v>
+        <v>9.0982105812462013</v>
       </c>
       <c r="J22" s="1">
-        <v>3.9821795898004435</v>
+        <v>6.8448114664803565</v>
       </c>
       <c r="K22" s="1">
-        <v>43.910444512040556</v>
+        <v>75.475931538619122</v>
       </c>
       <c r="L22" s="1">
-        <v>4.9922876699999996</v>
+        <v>8.5810464136543132</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="16"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="17"/>
-        <v>3.4668054390400695E-2</v>
+        <v>3.4668054390400702E-2</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="18"/>
@@ -5684,11 +5684,11 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" si="19"/>
-        <v>1.4200912168031233E-3</v>
+        <v>1.4200912168031235E-3</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="20"/>
-        <v>3.2692099125132913E-2</v>
+        <v>3.2692099125132927E-2</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="21"/>
@@ -5700,11 +5700,11 @@
       </c>
       <c r="T22" s="1">
         <f t="shared" si="23"/>
-        <v>0.24997755821531328</v>
+        <v>0.24997755821531331</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="24"/>
-        <v>0.9383165054885575</v>
+        <v>0.93831650548855738</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="25"/>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="W22" s="1">
         <f t="shared" si="26"/>
-        <v>2.9699854787419339E-2</v>
+        <v>2.9699854787419336E-2</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="27"/>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="28"/>
-        <v>7.7303644875166819E-2</v>
+        <v>7.7303644875166833E-2</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="29"/>
@@ -5728,11 +5728,11 @@
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="30"/>
-        <v>0.73973023551679862</v>
+        <v>0.73973023551679873</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="31"/>
-        <v>0.10627308662516798</v>
+        <v>0.10627308662516799</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>47</v>
